--- a/操作系统下的各类日志文件默认路径.xlsx
+++ b/操作系统下的各类日志文件默认路径.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linux下的各类日志文件默认路径" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="windows下的各类日志文件默认路径" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2352,8 +2352,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2881,8 +2881,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
